--- a/document/iciba-collins.xlsx
+++ b/document/iciba-collins.xlsx
@@ -510,10 +510,10 @@
       </c>
       <c r="D2" s="2" t="str"/>
       <c r="E2" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="str">
-        <v>2018-02-02 17:37:44</v>
+        <v>2018-02-05 14:36:05</v>
       </c>
     </row>
     <row customHeight="true" ht="100" r="3">
